--- a/LİNKLER_Ademden.xlsx
+++ b/LİNKLER_Ademden.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mADEMatik\Desktop\GEO12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F366B91D-1772-4301-B51C-D164340C0DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BD0DE3-3552-4339-99C6-589994CBEC0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -218,22 +218,22 @@
     <t>https://ders.eba.gov.tr/ders//redirectContent.jsp?resourceId=744350f19ba8a6a225a3912074a07699&amp;resourceType=1&amp;resourceLocation=2</t>
   </si>
   <si>
-    <t>http://kitap.eba.gov.tr/KodSor.php?KOD=51871</t>
-  </si>
-  <si>
     <t>fm_elim_mk</t>
   </si>
   <si>
-    <t>http://kitap.eba.gov.tr/KodSor.php?KOD=51872</t>
-  </si>
-  <si>
     <t>https://ders.eba.gov.tr/ders//redirectContent.jsp?resourceId=86c9439bf4e5b2db3a9d24e61a2fcc65&amp;resourceType=1&amp;resourceLocation=2</t>
   </si>
   <si>
     <t>fm_geomatik_mk</t>
   </si>
   <si>
-    <t>http://kitap.eba.gov.tr/KodSor.php?KOD=51873</t>
+    <t>http://kitap.eba.gov.tr/KodSor.php?KOD=51890</t>
+  </si>
+  <si>
+    <t>http://kitap.eba.gov.tr/KodSor.php?KOD=51888</t>
+  </si>
+  <si>
+    <t>http://kitap.eba.gov.tr/KodSor.php?KOD=51889</t>
   </si>
 </sst>
 </file>
@@ -391,6 +391,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -405,18 +417,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -702,7 +702,7 @@
   <dimension ref="B2:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -717,42 +717,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="17"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="21"/>
     </row>
     <row r="5" spans="2:6" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
@@ -761,7 +761,7 @@
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="13" t="s">
         <v>53</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -776,11 +776,11 @@
         <v>2</v>
       </c>
       <c r="C7" s="9"/>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="14" t="s">
         <v>54</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>52</v>
@@ -791,11 +791,11 @@
         <v>3</v>
       </c>
       <c r="C8" s="9"/>
-      <c r="D8" s="19" t="s">
-        <v>57</v>
+      <c r="D8" s="14" t="s">
+        <v>56</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>55</v>
@@ -806,14 +806,14 @@
         <v>10</v>
       </c>
       <c r="C9" s="11"/>
-      <c r="D9" s="20" t="s">
-        <v>60</v>
+      <c r="D9" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
@@ -821,7 +821,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="20"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="1"/>
       <c r="F10" s="10"/>
     </row>
@@ -830,7 +830,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="20"/>
+      <c r="D11" s="15"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
     </row>
@@ -839,7 +839,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="20"/>
+      <c r="D12" s="15"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
     </row>
@@ -848,7 +848,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="20"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
     </row>
@@ -1003,35 +1003,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="17"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="21"/>
     </row>
     <row r="5" spans="2:6" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6"/>
@@ -1110,7 +1110,7 @@
       <c r="D10" s="11"/>
       <c r="E10" s="1"/>
       <c r="F10" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">

--- a/LİNKLER_Ademden.xlsx
+++ b/LİNKLER_Ademden.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mADEMatik\Desktop\GEO12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BD0DE3-3552-4339-99C6-589994CBEC0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED41F8F3-D6D7-461B-B073-BF8716BE33BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="77">
   <si>
     <t>DERS KİTAPLARINDA YER ALAN KAREKOD BİLGİLERİ</t>
   </si>
@@ -234,6 +234,51 @@
   </si>
   <si>
     <t>http://kitap.eba.gov.tr/KodSor.php?KOD=51889</t>
+  </si>
+  <si>
+    <t>fm_eksorular1_mk</t>
+  </si>
+  <si>
+    <t>fm_eksorular2_mk</t>
+  </si>
+  <si>
+    <t>fm_eksorular3_mk</t>
+  </si>
+  <si>
+    <t>fm_eksorular4_mk</t>
+  </si>
+  <si>
+    <t>fm_eksorular5_mk</t>
+  </si>
+  <si>
+    <t>http://kitap.eba.gov.tr/KodSor.php?KOD=51912</t>
+  </si>
+  <si>
+    <t>http://kitap.eba.gov.tr/KodSor.php?KOD=51911</t>
+  </si>
+  <si>
+    <t>http://kitap.eba.gov.tr/KodSor.php?KOD=51910</t>
+  </si>
+  <si>
+    <t>http://kitap.eba.gov.tr/KodSor.php?KOD=51909</t>
+  </si>
+  <si>
+    <t>http://kitap.eba.gov.tr/KodSor.php?KOD=51908</t>
+  </si>
+  <si>
+    <t>https://ders.eba.gov.tr/ders//redirectContent.jsp?resourceId=c8febc44e2b0823c9cb2e19d7e4a9278&amp;resourceType=1&amp;resourceLocation=2</t>
+  </si>
+  <si>
+    <t>https://ders.eba.gov.tr/ders//redirectContent.jsp?resourceId=95cc668f83f47573d46878f2e3e12b37&amp;resourceType=1&amp;resourceLocation=2</t>
+  </si>
+  <si>
+    <t>https://ders.eba.gov.tr/ders//redirectContent.jsp?resourceId=320a30576cde51b3b60e5fbb3ef804ca&amp;resourceType=1&amp;resourceLocation=2</t>
+  </si>
+  <si>
+    <t>https://ders.eba.gov.tr/ders//redirectContent.jsp?resourceId=9cd319a3b75b2868ea6536daa40f37bc&amp;resourceType=1&amp;resourceLocation=2</t>
+  </si>
+  <si>
+    <t>https://ders.eba.gov.tr/ders//redirectContent.jsp?resourceId=236a9b9767b383341efcb0bba4eaf4cf&amp;resourceType=1&amp;resourceLocation=2</t>
   </si>
 </sst>
 </file>
@@ -357,7 +402,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -418,6 +463,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Köprü" xfId="1" builtinId="8"/>
@@ -702,7 +748,7 @@
   <dimension ref="B2:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -710,7 +756,7 @@
     <col min="1" max="1" width="4.44140625" style="5" customWidth="1"/>
     <col min="2" max="2" width="8" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="118" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.77734375" style="5"/>
@@ -821,52 +867,82 @@
         <v>11</v>
       </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="10"/>
+      <c r="D10" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="D11" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="D12" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="D13" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="D14" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
     </row>

--- a/LİNKLER_Ademden.xlsx
+++ b/LİNKLER_Ademden.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mADEMatik\Desktop\GEO12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED41F8F3-D6D7-461B-B073-BF8716BE33BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657A88CA-2EF5-4A88-8538-BE79EC911BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -402,7 +402,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -463,7 +463,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Köprü" xfId="1" builtinId="8"/>
@@ -748,7 +747,7 @@
   <dimension ref="B2:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -870,10 +869,10 @@
       <c r="D10" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="12" t="s">
         <v>72</v>
       </c>
     </row>
@@ -885,10 +884,10 @@
       <c r="D11" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="12" t="s">
         <v>73</v>
       </c>
     </row>
@@ -900,10 +899,10 @@
       <c r="D12" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="12" t="s">
         <v>74</v>
       </c>
     </row>
@@ -915,10 +914,10 @@
       <c r="D13" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="12" t="s">
         <v>75</v>
       </c>
     </row>
@@ -930,10 +929,10 @@
       <c r="D14" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="12" t="s">
         <v>76</v>
       </c>
     </row>

--- a/LİNKLER_Ademden.xlsx
+++ b/LİNKLER_Ademden.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mADEMatik\Desktop\GEO12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657A88CA-2EF5-4A88-8538-BE79EC911BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7746EB5E-B456-48BC-9C81-648DA15CC65D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="87">
   <si>
     <t>DERS KİTAPLARINDA YER ALAN KAREKOD BİLGİLERİ</t>
   </si>
@@ -279,6 +279,36 @@
   </si>
   <si>
     <t>https://ders.eba.gov.tr/ders//redirectContent.jsp?resourceId=236a9b9767b383341efcb0bba4eaf4cf&amp;resourceType=1&amp;resourceLocation=2</t>
+  </si>
+  <si>
+    <t>fm_anakarekod1-mk</t>
+  </si>
+  <si>
+    <t>fm_anakarekod2-mk</t>
+  </si>
+  <si>
+    <t>fm_anakarekod3-mk</t>
+  </si>
+  <si>
+    <t>fm_anakarekod4-mk</t>
+  </si>
+  <si>
+    <t>fm_anakarekod5-mk</t>
+  </si>
+  <si>
+    <t>http://kitap.eba.gov.tr/KodSor.php?KOD=38393</t>
+  </si>
+  <si>
+    <t>http://kitap.eba.gov.tr/KodSor.php?KOD=38480</t>
+  </si>
+  <si>
+    <t>http://kitap.eba.gov.tr/KodSor.php?KOD=41463</t>
+  </si>
+  <si>
+    <t>http://kitap.eba.gov.tr/KodSor.php?KOD=38395</t>
+  </si>
+  <si>
+    <t>http://kitap.eba.gov.tr/KodSor.php?KOD=41521</t>
   </si>
 </sst>
 </file>
@@ -402,7 +432,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -463,6 +493,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Köprü" xfId="1" builtinId="8"/>
@@ -747,7 +778,7 @@
   <dimension ref="B2:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -755,7 +786,7 @@
     <col min="1" max="1" width="4.44140625" style="5" customWidth="1"/>
     <col min="2" max="2" width="8" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="118" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.77734375" style="5"/>
@@ -941,8 +972,12 @@
         <v>16</v>
       </c>
       <c r="C15" s="11"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="10"/>
+      <c r="D15" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>82</v>
+      </c>
       <c r="F15" s="10"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
@@ -950,8 +985,12 @@
         <v>17</v>
       </c>
       <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="10"/>
+      <c r="D16" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>83</v>
+      </c>
       <c r="F16" s="10"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
@@ -959,8 +998,12 @@
         <v>40</v>
       </c>
       <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="10"/>
+      <c r="D17" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>84</v>
+      </c>
       <c r="F17" s="10"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
@@ -968,8 +1011,12 @@
         <v>41</v>
       </c>
       <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="10"/>
+      <c r="D18" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>85</v>
+      </c>
       <c r="F18" s="10"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
@@ -977,8 +1024,12 @@
         <v>42</v>
       </c>
       <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="10"/>
+      <c r="D19" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>86</v>
+      </c>
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
@@ -986,7 +1037,7 @@
         <v>43</v>
       </c>
       <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
+      <c r="D20" s="15"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
     </row>
